--- a/data/minfin/13_questions.xlsx
+++ b/data/minfin/13_questions.xlsx
@@ -18,6 +18,68 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Согласованы с МФ России</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Согласовано с МФ России</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
   <si>
@@ -91,18 +153,6 @@
   </si>
   <si>
     <t>Планируется, завершить, работу, новая редакция, новая версия, Бюджетного кодекса, БК РФ, в текущем году, 2017, внести, Дума, Госдума, Государственная Дума</t>
-  </si>
-  <si>
-    <t>Работа над новой редакцией Бюджетного кодекса будет завершена, в случае концептуального принятия Государственной Думой отдельных законопроектов</t>
-  </si>
-  <si>
-    <t>Работа над новой редакцией Бюджетного кодекса РФ будет завершена в 2017 году, в случае концептуального принятия Государственной Думой отдельных законопроектов по 6 направлениям: 
-• формат федерального бюджета, 
-• "бюджетное правило",
-• межбюджетные отношения, 
-• государственный финансовый контроль, 
-• управление государственным (муниципальным) долгом, 
-• казначейское обслуживание</t>
   </si>
   <si>
     <t>Кем устанавливаются порядок и сроки составления проекта федерального бюджета?</t>
@@ -293,12 +343,6 @@
     <t>формируется, формирование, государственное, муниципальное, задание, госзадание</t>
   </si>
   <si>
-    <t>Государственное (муниципальное) задание формируется на оказание государственных (муниципальных) услуг или выполнение работ в соответствии с ведомственным перечнем государственных (муниципальных) услуг и работ, сформированным в соответствии с базовыми (отраслевыми) перечнями государственных и муниципальных услуг и работ</t>
-  </si>
-  <si>
-    <t>В соответствии со статьей 69.2 Бюджетного кодекса Российской Федерации государственное (муниципальное) задание формируется на оказание государственных (муниципальных) услуг (выполнение работ) в соответствии с ведомственным перечнем государственных (муниципальных) услуг и работ, сформированным в соответствии с базовыми (отраслевыми) перечнями государственных и муниципальных услуг и работ</t>
-  </si>
-  <si>
     <t>На какой срок утверждается государственное (муниципальное) задание?</t>
   </si>
   <si>
@@ -312,9 +356,6 @@
   </si>
   <si>
     <t>Осуществляется, финансовое, обеспечение, выполнения, государственного, муниципального, задания, учреждением</t>
-  </si>
-  <si>
-    <t>Финансовое обеспечение выполнения государственного (муниципального) задания осуществляется путем предоставления учреждению субсидии финансовое обеспечение выполнения государственного задания</t>
   </si>
   <si>
     <t>На основании чего рассчитывается объем субсидии на финансовое обеспечение выполнения государственного (муниципального) задания на оказание государственных (муниципальных) услуг?</t>
@@ -360,13 +401,55 @@
   </si>
   <si>
     <t>автономное. бюджетное, учреждение, отказаться, от выполнения, не выполнять, государственное задание, госзадание</t>
+  </si>
+  <si>
+    <t>Государственное (муниципальное) задание на две тысячи восемнадцатый год формируется на оказание государственных (муниципальных) услуг или выполнение работ в соответствии с общероссийскими базовыми (отраслевыми) перечнями (классификаторами) государственных и муниципальных услуг, оказываемых физическим лицам, а также в соответствии с федеральными и региональными перечнями (классификаторами) государственных и муниципальных услуг, не включенных в общероссийские базовые (отраслевые) перечни (классификаторы), и работ</t>
+  </si>
+  <si>
+    <t>В соответствии со статьей 69.2 Бюджетного кодекса Российской Федерации Государственное (муниципальное) задание на 2018 год формируется на оказание государственных (муниципальных) услуг или выполнение работ в соответствии с общероссийскими базовыми (отраслевыми) перечнями (классификаторами) государственных и муниципальных услуг, оказываемых физическим лицам, а также в соответствии с федеральными и региональными перечнями (классификаторами) государственных и муниципальных услуг, не включенных в общероссийские базовые (отраслевые) перечни (классификаторы), и работ, оказание и выполнение которых предусмотрено нормативными правовыми актами Российской Федерации, субъектов Российской Федерации (муниципальными правовыми актами)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Финансовое обеспечение выполнения государственного (муниципального) задания осуществляется путем предоставления учреждению субсидии </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">на </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>финансовое обеспечение выполнения государственного задания</t>
+    </r>
+  </si>
+  <si>
+    <t>Работа по подготовке новой редакции  Бюджетного кодекса будет завершена, в случае концептуального принятия Государственной Думой отдельных законопроектов</t>
+  </si>
+  <si>
+    <t>Работа по подготовке новой редакции Бюджетного кодекса РФ будет завершена в 2017 году, в случае концептуального принятия Государственной Думой отдельных законопроектов по 6 направлениям: 
+• формат федерального бюджета, 
+• межбюджетные отношения, 
+• государственный финансовый контроль, 
+• управление государственным (муниципальным) долгом, 
+• казначейское обслуживание</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,13 +479,53 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -417,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -454,6 +577,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,14 +915,14 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="55.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="38.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="36.5703125" style="2" customWidth="1"/>
@@ -839,18 +974,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="173.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="157.5">
+      <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>25</v>
+      <c r="C2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>23</v>
@@ -858,338 +993,338 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="47.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="110.25">
+      <c r="A4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="110.25">
-      <c r="A4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="63">
+      <c r="A5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="63">
-      <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="110.25">
+      <c r="A6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="110.25">
-      <c r="A6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="31.5">
+      <c r="A7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="31.5">
-      <c r="A7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="283.5">
+      <c r="A8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="283.5">
-      <c r="A8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" ht="63">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="173.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="157.5">
+      <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="63">
+      <c r="A11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="63">
-      <c r="A11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="189.75" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="299.25">
       <c r="A13" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="261" customHeight="1">
       <c r="A14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="180" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="78.75">
+      <c r="A16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="141.75">
-      <c r="A15" s="8" t="s">
+      <c r="B16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="78.75">
+      <c r="A17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="78.75">
-      <c r="A16" s="8" t="s">
+      <c r="C17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="189" customHeight="1">
+      <c r="A18" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="78.75">
-      <c r="A17" s="8" t="s">
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="137.25" customHeight="1">
+      <c r="A19" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="189" customHeight="1">
-      <c r="A18" s="8" t="s">
+      <c r="C19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="98.25" customHeight="1">
+      <c r="A20" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="C20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="252">
+      <c r="A21" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="137.25" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="98.25" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="252">
-      <c r="A21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1">
@@ -1227,5 +1362,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/minfin/13_questions.xlsx
+++ b/data/minfin/13_questions.xlsx
@@ -298,9 +298,6 @@
     <t>задачи, позволяет, решает, решить, казначейское сопровождение, единый счет, средств, бюджетные средства, предоставляемых из бюджета</t>
   </si>
   <si>
-    <t>Казначейское сопровождение позволяет доводить средства из бюджета в реальный сектор экономики, обеспечение прозрачности денежных потоков, повышение ликвидности единого казначейского счета</t>
-  </si>
-  <si>
     <t>Система казначейского сопровождения средств бюджета обеспечивает:
 1. Доведение средств из бюджета в реальный сектор экономики;
 2. Достижение целей предоставления средств в соответствии с условиями их предоставления;
@@ -443,6 +440,51 @@
 • государственный финансовый контроль, 
 • управление государственным (муниципальным) долгом, 
 • казначейское обслуживание</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Казначейское сопровождение позволяет доводить средства из бюджета в реальный сектор экономики, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>обеспечивать прозрачность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> денежных потоков, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>повышать</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ликвидность единого казначейского счета</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -540,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -588,6 +630,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -901,7 +946,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -912,10 +957,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -923,7 +968,7 @@
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="80.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="55.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="131" style="2" customWidth="1"/>
     <col min="5" max="5" width="38.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="36.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="44.140625" style="2" customWidth="1"/>
@@ -974,7 +1019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="157.5">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="110.25">
       <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
@@ -982,10 +1027,10 @@
         <v>22</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>23</v>
@@ -1045,7 +1090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="110.25">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
@@ -1079,7 +1124,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="283.5">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="110.25">
       <c r="A8" s="16" t="s">
         <v>18</v>
       </c>
@@ -1098,7 +1143,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
@@ -1117,7 +1162,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="157.5">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="110.25">
       <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
@@ -1134,7 +1179,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A11" s="16" t="s">
         <v>21</v>
       </c>
@@ -1151,7 +1196,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="189.75" customHeight="1">
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="94.5">
       <c r="A12" s="8" t="s">
         <v>54</v>
       </c>
@@ -1168,78 +1213,78 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="299.25">
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="176.25" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>69</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="261" customHeight="1">
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="220.5">
       <c r="A14" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="180" customHeight="1">
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="141.75">
       <c r="A15" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="78.75">
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A16" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" ht="78.75">
@@ -1247,84 +1292,84 @@
         <v>59</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="189" customHeight="1">
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="110.25">
       <c r="A18" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="137.25" customHeight="1">
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="110.25">
       <c r="A19" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="98.25" customHeight="1">
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="78.75">
       <c r="A20" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="252">
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="141.75">
       <c r="A21" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1">

--- a/data/minfin/13_questions.xlsx
+++ b/data/minfin/13_questions.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0">
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
   <si>
     <t>question</t>
   </si>
@@ -429,9 +429,6 @@
       </rPr>
       <t>финансовое обеспечение выполнения государственного задания</t>
     </r>
-  </si>
-  <si>
-    <t>Работа по подготовке новой редакции  Бюджетного кодекса будет завершена, в случае концептуального принятия Государственной Думой отдельных законопроектов</t>
   </si>
   <si>
     <t>Работа по подготовке новой редакции Бюджетного кодекса РФ будет завершена в 2017 году, в случае концептуального принятия Государственной Думой отдельных законопроектов по 6 направлениям: 
@@ -486,12 +483,18 @@
       <t xml:space="preserve"> ликвидность единого казначейского счета</t>
     </r>
   </si>
+  <si>
+    <t>Работа по подготовке новой редакции Бюджетного кодекса будет завершена в случае концептуального принятия Государственной Думой отдельных законопроектов</t>
+  </si>
+  <si>
+    <t>Финансовое обесп\+ечение выполнения государственного (муниципального) задания осуществляется путем предоставления учреждению субсидии на финансовое обесп\+ечение выполнения государственного задания</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,24 +949,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="2" customWidth="1"/>
@@ -981,7 +984,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="110.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
@@ -1027,17 +1030,17 @@
         <v>22</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>102</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="47.25">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
@@ -1055,7 +1058,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="110.25">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
@@ -1073,7 +1076,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="31.5">
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>17</v>
       </c>
@@ -1124,7 +1127,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="110.25">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>18</v>
       </c>
@@ -1143,7 +1146,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
@@ -1162,7 +1165,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="110.25">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25">
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>21</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="94.5">
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>54</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="176.25" customHeight="1">
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>55</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>68</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>70</v>
@@ -1236,7 +1239,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="220.5">
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>56</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="141.75">
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>57</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="47.25">
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>58</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="78.75">
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>59</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>82</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>100</v>
@@ -1304,7 +1307,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="110.25">
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>60</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="110.25">
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>61</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="78.75">
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>62</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="141.75">
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>63</v>
       </c>
@@ -1372,36 +1375,36 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1">
+    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1">
+    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1">
+    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1">
+    <row r="25" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1">
+    <row r="26" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1">
+    <row r="27" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:5" s="5" customFormat="1">
+    <row r="28" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1">
+    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1">
+    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:5" s="5" customFormat="1">
+    <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
   </sheetData>

--- a/data/minfin/13_questions.xlsx
+++ b/data/minfin/13_questions.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,70 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Автор</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Согласованы с МФ России</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Согласовано с МФ России</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>question</t>
   </si>
@@ -222,9 +160,6 @@
     <t>Что такое бюджет?</t>
   </si>
   <si>
-    <t>бюджет, что, определение</t>
-  </si>
-  <si>
     <t>Бюджет – форма образования и расходования денежных средств, предназначенных для финансового обеспечения задач и функций государства и местного самоуправления</t>
   </si>
   <si>
@@ -241,9 +176,6 @@
   </si>
   <si>
     <t>бюджетная система, состав, что, входит, включает</t>
-  </si>
-  <si>
-    <t>В бюджетную систему Российской Федерации входит федеральный бюджет, бюджеты субъектов Российской Федерации, местные бюджеты и бюджеты государственных внебюджетных фондов</t>
   </si>
   <si>
     <t>13.11</t>
@@ -323,15 +255,6 @@
   <si>
     <t>Эксперимент заключается в построении системы бюджетного мониторинга, позволяющей не допускать, предотвращать нарушения бюджетного законодательства, выявлять бюджетные риски и принимать оперативные меры реагирования.
 Уже разработана и направлена в Правительство Концепция бюджетного мониторинга, налажено межведомственное взаимодействие с Росфинмониторингом и Налоговой службой, определены инвестиционные объекты, включенные в федеральную адресную инвестиционную программу на две тысячи семнадцатый год, мониторинг которых будет осуществляться Казначейством России</t>
-  </si>
-  <si>
-    <t>В текущем году Казначейство России должно реализовать поставленную Правительством Российской Федерации в 2016 году задачу обеспечения прозрачности движения средств бюджета посредством проведения эксперимента по бюджетному мониторингу инвестиционных объектов, включенных в федеральную адресную инвестиционную программу на 2017 год.
-Должна быть выстроена система бюджетного мониторинга, позволяющая не допускать, предотвращать нарушения бюджетного законодательства, выявлять бюджетные риски и принимать оперативные меры реагирования.
-В первую очередь это касается заключения и исполнения государственных контрактов и договоров с соисполнителями по всей цепочке кооперации.
-Бюджетный мониторинг использования средств, предоставленных из бюджетов бюджетной системы Российской Федерации должен охватить как участников бюджетного процесса, так и юридических лиц, индивидуальных предпринимателей и физических лиц – получателей таких средств.
-Реализация нового направления позволит Казначейству России совершенствовать контрольные функции, сместить акцент на предварительный контроль и предупреждение, не допустить к госзаказу юридических лиц с «сомнительной» репутацией.
-В рамках бюджетного мониторинга Казначейством России предусматривается сбор, анализ и оценка информации, в том числе с использованием данных государственных информационных систем и информации, полученной от участников межведомственного взаимодействия.
-На сегодняшний день уже разработана и направлена в Правительство Концепция бюджетного мониторинга, налажено межведомственное взаимодействие в Росфинмониторингом и Налоговой службой, определены инвестиционные объекты, включенные в федеральную адресную инвестиционную программу на 2017 год, мониторинг которых будет осуществляться Казначейством России. Это объекты госпрограмм в области развития транспортной системы, здравоохранения, космической деятельности и социально – экономического развития Республики Крым</t>
   </si>
   <si>
     <t>Каким образом формируется государственное (муниципальное) задание?</t>
@@ -489,12 +412,30 @@
   <si>
     <t>Финансовое обесп\+ечение выполнения государственного (муниципального) задания осуществляется путем предоставления учреждению субсидии на финансовое обесп\+ечение выполнения государственного задания</t>
   </si>
+  <si>
+    <t>В бюджетную систему Российской Федерации входят федеральный бюджет, бюджеты субъектов Российской Федерации, местные бюджеты и бюджеты государственных внебюджетных фондов</t>
+  </si>
+  <si>
+    <t>В текущем году Казначейство России должно реализовать поставленную Правительством Российской Федерации в 2016 году задачу обеспечения прозрачности движения средств бюджета посредством проведения эксперимента по бюджетному мониторингу инвестиционных объектов, включенных в федеральную адресную инвестиционную программу на 2017 год.
+Должна быть выстроена система бюджетного мониторинга, позволяющая не допускать, предотвращать нарушения бюджетного законодательства, выявлять бюджетные риски и принимать оперативные меры реагирования.
+В первую очередь это касается заключения и исполнения государственных контрактов и договоров с соисполнителями по всей цепочке кооперации.
+Бюджетный мониторинг использования средств, предоставленных из бюджетов бюджетной системы Российской Федерации, должен охватить как участников бюджетного процесса, так и юридических лиц, индивидуальных предпринимателей и физических лиц – получателей таких средств.
+Реализация нового направления позволит Казначейству России совершенствовать контрольные функции, сместить акцент на предварительный контроль и предупреждение, не допустить к госзаказу юридических лиц с «сомнительной» репутацией.
+В рамках бюджетного мониторинга Казначейством России предусматривается сбор, анализ и оценка информации, в том числе с использованием данных государственных информационных систем и информации, полученной от участников межведомственного взаимодействия.
+На сегодняшний день уже разработана и направлена в Правительство Концепция бюджетного мониторинга, налажено межведомственное взаимодействие с Росфинмониторингом и Налоговой службой, определены инвестиционные объекты, включенные в федеральную адресную инвестиционную программу на 2017 год, мониторинг которых будет осуществляться Казначейством России. Это объекты госпрограмм в области развития транспортной системы, здравоохранения, космической деятельности и социально-экономического развития Республики Крым</t>
+  </si>
+  <si>
+    <t>Государственное (муниципальное) задание утверждается на срок, соответствующий установленному бюджетным законодательством Российской Федерации сроку формирования бюджета</t>
+  </si>
+  <si>
+    <t>бюджет, что, определение, такой</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,21 +470,6 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -956,14 +882,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1030,10 +956,10 @@
         <v>22</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>23</v>
@@ -1154,13 +1080,13 @@
         <v>45</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1170,16 +1096,16 @@
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
@@ -1187,192 +1113,192 @@
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="D14" s="12" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1410,6 +1336,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>